--- a/data/trans_orig/P1425-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Edad-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4658</v>
+        <v>4773</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001926361452030589</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009428097064044787</v>
+        <v>0.009660048356995597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>2962</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>937</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8896</v>
+        <v>7952</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00633573043703941</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002003978001644847</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01902914063200033</v>
+        <v>0.01700938915186863</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -788,16 +788,16 @@
         <v>971</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9689</v>
+        <v>9123</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004070114308578848</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001009971519135483</v>
+        <v>0.001009890298446143</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01007617978607587</v>
+        <v>0.009488029721723853</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>493112</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489406</v>
+        <v>489291</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -823,7 +823,7 @@
         <v>0.9980736385479694</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9905719029359568</v>
+        <v>0.9903399516430044</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -835,19 +835,19 @@
         <v>464527</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>458593</v>
+        <v>459537</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>466552</v>
+        <v>467489</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9936642695629606</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9809708593679997</v>
+        <v>0.9829906108481313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9979960219983551</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>984</v>
@@ -856,7 +856,7 @@
         <v>957639</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>951864</v>
+        <v>952430</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>960582</v>
@@ -865,10 +865,10 @@
         <v>0.9959298856914212</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9899238202139242</v>
+        <v>0.9905119702782761</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9989900284808645</v>
+        <v>0.9989901097015539</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>4799</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1866</v>
+        <v>1735</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10174</v>
+        <v>10449</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006525020149510554</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002537028909300284</v>
+        <v>0.002358653338965198</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01383322494173715</v>
+        <v>0.0142071883630505</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -981,19 +981,19 @@
         <v>4535</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1193</v>
+        <v>1088</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11272</v>
+        <v>10179</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007250710494660002</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001906723571800372</v>
+        <v>0.001739183731254423</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01802087882140871</v>
+        <v>0.01627377193205886</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -1002,19 +1002,19 @@
         <v>9334</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4160</v>
+        <v>4324</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17493</v>
+        <v>16761</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006858540124291555</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003056406446510599</v>
+        <v>0.003176975208225382</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01285314091996021</v>
+        <v>0.01231540074528971</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>730690</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>725315</v>
+        <v>725040</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>733623</v>
+        <v>733754</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9934749798504895</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9861667750582639</v>
+        <v>0.9857928116369502</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9974629710906997</v>
+        <v>0.9976413466610351</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>587</v>
@@ -1052,19 +1052,19 @@
         <v>620959</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>614222</v>
+        <v>615315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>624301</v>
+        <v>624406</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.99274928950534</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9819791211785914</v>
+        <v>0.9837262280679412</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9980932764281997</v>
+        <v>0.9982608162687456</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1285</v>
@@ -1073,19 +1073,19 @@
         <v>1351648</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1343489</v>
+        <v>1344221</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1356822</v>
+        <v>1356658</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9931414598757085</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9871468590800402</v>
+        <v>0.9876845992547103</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9969435935534895</v>
+        <v>0.9968230247917746</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>9233</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4161</v>
+        <v>4537</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18140</v>
+        <v>18299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01445667843176038</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006515815720852102</v>
+        <v>0.007103467120191173</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02840327505349888</v>
+        <v>0.02865182389130633</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1198,19 +1198,19 @@
         <v>4001</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>973</v>
+        <v>958</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9180</v>
+        <v>10359</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005801106151706759</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001411168571750396</v>
+        <v>0.001389572574095772</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01330990351573186</v>
+        <v>0.01501873923260142</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1219,19 +1219,19 @@
         <v>13234</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6835</v>
+        <v>7307</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22401</v>
+        <v>22971</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009962491403528654</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005145373187195845</v>
+        <v>0.005500747538938274</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.016862749113089</v>
+        <v>0.01729196186508134</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>629435</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>620528</v>
+        <v>620369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>634507</v>
+        <v>634131</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9855433215682396</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9715967249465013</v>
+        <v>0.9713481761086942</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9934841842791485</v>
+        <v>0.9928965328798092</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>654</v>
@@ -1269,19 +1269,19 @@
         <v>685743</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>680564</v>
+        <v>679385</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>688771</v>
+        <v>688786</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9941988938482932</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9866900964842682</v>
+        <v>0.9849812607673986</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9985888314282496</v>
+        <v>0.9986104274259042</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1259</v>
@@ -1290,19 +1290,19 @@
         <v>1315178</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1306011</v>
+        <v>1305441</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1321577</v>
+        <v>1321105</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9900375085964713</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9831372508869115</v>
+        <v>0.9827080381349187</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9948546268128045</v>
+        <v>0.9944992524610619</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>5153</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1971</v>
+        <v>1950</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11115</v>
+        <v>11324</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009925410800517918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003795702984998987</v>
+        <v>0.00375627181527842</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02140918391094037</v>
+        <v>0.02181216879698275</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1415,19 +1415,19 @@
         <v>4756</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1811</v>
+        <v>1892</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10353</v>
+        <v>10787</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009223967419811872</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003511673796282657</v>
+        <v>0.003670157812238113</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02007845678827243</v>
+        <v>0.02092048164121145</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1436,19 +1436,19 @@
         <v>9909</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5046</v>
+        <v>4860</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17861</v>
+        <v>17665</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009575877079880498</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004876379356684227</v>
+        <v>0.004697075342736915</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01726059185614142</v>
+        <v>0.01707144684114535</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>513994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>508032</v>
+        <v>507823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>517176</v>
+        <v>517197</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9900745891994821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9785908160890596</v>
+        <v>0.9781878312030173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.996204297015001</v>
+        <v>0.9962437281847216</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>497</v>
@@ -1486,19 +1486,19 @@
         <v>510886</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>505289</v>
+        <v>504855</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>513831</v>
+        <v>513750</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9907760325801881</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9799215432117276</v>
+        <v>0.9790795183587885</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9964883262037173</v>
+        <v>0.9963298421877619</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>976</v>
@@ -1507,19 +1507,19 @@
         <v>1024880</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1016928</v>
+        <v>1017124</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1029743</v>
+        <v>1029929</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9904241229201195</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9827394081438583</v>
+        <v>0.9829285531588551</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9951236206433157</v>
+        <v>0.9953029246572632</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>6898</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2793</v>
+        <v>2935</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13702</v>
+        <v>13981</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01783849084429426</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00722284550664077</v>
+        <v>0.007588952591551386</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03543295098673917</v>
+        <v>0.03615485066433476</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1632,19 +1632,19 @@
         <v>4759</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1756</v>
+        <v>1858</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10969</v>
+        <v>10057</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01177889734171192</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004345557179817009</v>
+        <v>0.004598013212556771</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0271521741423651</v>
+        <v>0.02489484620276059</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1653,19 +1653,19 @@
         <v>11657</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5819</v>
+        <v>6479</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19363</v>
+        <v>19869</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0147424959618948</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007359041699457176</v>
+        <v>0.008194268945164977</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02448798163639261</v>
+        <v>0.02512864396018769</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>379812</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>373008</v>
+        <v>372729</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>383917</v>
+        <v>383775</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9821615091557058</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9645670490132608</v>
+        <v>0.9638451493356652</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9927771544933592</v>
+        <v>0.9924110474084487</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>391</v>
@@ -1703,19 +1703,19 @@
         <v>399227</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>393017</v>
+        <v>393929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>402230</v>
+        <v>402128</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9882211026582881</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.972847825857635</v>
+        <v>0.9751051537972395</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.995654442820183</v>
+        <v>0.9954019867874433</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>776</v>
@@ -1724,19 +1724,19 @@
         <v>779039</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>771333</v>
+        <v>770827</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>784877</v>
+        <v>784217</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9852575040381052</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9755120183636072</v>
+        <v>0.9748713560398127</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9926409583005429</v>
+        <v>0.991805731054835</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>6578</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2787</v>
+        <v>2743</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13174</v>
+        <v>12996</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02248314689753731</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009526085075961716</v>
+        <v>0.009374254514274392</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04502762943592109</v>
+        <v>0.04441715340207069</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1849,19 +1849,19 @@
         <v>4413</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1594</v>
+        <v>1654</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9276</v>
+        <v>9889</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01286729030354867</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004648337739589495</v>
+        <v>0.004824193632370708</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0270493917460057</v>
+        <v>0.02883571840338629</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -1870,19 +1870,19 @@
         <v>10991</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5592</v>
+        <v>5537</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18534</v>
+        <v>18170</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01729429410569679</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008798566969628824</v>
+        <v>0.008712231161789484</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02916331153713796</v>
+        <v>0.02859159380493576</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>286005</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>279409</v>
+        <v>279587</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289796</v>
+        <v>289840</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9775168531024627</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9549723705640789</v>
+        <v>0.9555828465979292</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9904739149240382</v>
+        <v>0.9906257454857257</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>366</v>
@@ -1920,19 +1920,19 @@
         <v>338521</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>333658</v>
+        <v>333045</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>341340</v>
+        <v>341280</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9871327096964513</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9729506082539942</v>
+        <v>0.9711642815966134</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9953516622604105</v>
+        <v>0.9951758063676293</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>662</v>
@@ -1941,19 +1941,19 @@
         <v>624526</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>616983</v>
+        <v>617347</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>629925</v>
+        <v>629980</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9827057058943032</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9708366884628625</v>
+        <v>0.971408406195064</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9912014330303713</v>
+        <v>0.9912877688382105</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>7119</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2803</v>
+        <v>3485</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12922</v>
+        <v>13223</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03391959977942238</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0133543765369776</v>
+        <v>0.01660393601520447</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06156770390604851</v>
+        <v>0.06300087714045628</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2066,7 +2066,7 @@
         <v>11422</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5362</v>
+        <v>5296</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>21338</v>
@@ -2075,10 +2075,10 @@
         <v>0.03420705914911456</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01605769179725216</v>
+        <v>0.01586133788472466</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06390501196957946</v>
+        <v>0.06390418542989768</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -2087,19 +2087,19 @@
         <v>18541</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10467</v>
+        <v>11186</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29046</v>
+        <v>28950</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03409611057339478</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01924786962285671</v>
+        <v>0.02056977122587045</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05341422825510988</v>
+        <v>0.05323772897582642</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>202764</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>196961</v>
+        <v>196660</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>207080</v>
+        <v>206398</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9660804002205776</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9384322960939506</v>
+        <v>0.9369991228595436</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9866456234630223</v>
+        <v>0.9833960639847955</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>280</v>
@@ -2140,16 +2140,16 @@
         <v>312570</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>328546</v>
+        <v>328612</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9657929408508854</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9360949880304208</v>
+        <v>0.9360958145701022</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.983942308202748</v>
+        <v>0.9841386621152752</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>492</v>
@@ -2158,19 +2158,19 @@
         <v>525250</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>514745</v>
+        <v>514841</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>533324</v>
+        <v>532605</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9659038894266052</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9465857717448901</v>
+        <v>0.9467622710241735</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9807521303771434</v>
+        <v>0.9794302287741296</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>40732</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29233</v>
+        <v>28670</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53886</v>
+        <v>55242</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01243146754218791</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008921989561051922</v>
+        <v>0.008750156587797455</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01644592479024987</v>
+        <v>0.01685990507417724</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -2283,19 +2283,19 @@
         <v>36848</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26212</v>
+        <v>26306</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50600</v>
+        <v>51159</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01090432271120994</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007756772408797242</v>
+        <v>0.007784604966452562</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01497404823056385</v>
+        <v>0.01513946832489492</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>77</v>
@@ -2304,19 +2304,19 @@
         <v>77580</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61686</v>
+        <v>59672</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>96461</v>
+        <v>96121</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01165611826258588</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009268145434076116</v>
+        <v>0.008965457726594442</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01449284327209341</v>
+        <v>0.01444181458804981</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>3235811</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3222657</v>
+        <v>3221301</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3247310</v>
+        <v>3247873</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9875685324578121</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9835540752097501</v>
+        <v>0.9831400949258225</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9910780104389482</v>
+        <v>0.9912498434122026</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3261</v>
@@ -2354,19 +2354,19 @@
         <v>3342349</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3328597</v>
+        <v>3328038</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3352985</v>
+        <v>3352891</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9890956772887901</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9850259517694362</v>
+        <v>0.9848605316751051</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9922432275912029</v>
+        <v>0.9922153950335474</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6434</v>
@@ -2375,19 +2375,19 @@
         <v>6578161</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6559280</v>
+        <v>6559620</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6594055</v>
+        <v>6596069</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9883438817374142</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9855071567279063</v>
+        <v>0.9855581854119497</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9907318545659238</v>
+        <v>0.9910345422734055</v>
       </c>
     </row>
     <row r="27">
@@ -2722,19 +2722,19 @@
         <v>2808</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7515</v>
+        <v>7602</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006182320151843513</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001968710666424323</v>
+        <v>0.001946161459985565</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01654778490796029</v>
+        <v>0.01673914214811664</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2756,19 +2756,19 @@
         <v>2808</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8009</v>
+        <v>6669</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003174754909252277</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001012661233341133</v>
+        <v>0.001005230590385841</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009056400574851424</v>
+        <v>0.007541046087516295</v>
       </c>
     </row>
     <row r="5">
@@ -2785,19 +2785,19 @@
         <v>451338</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>446631</v>
+        <v>446544</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>453252</v>
+        <v>453262</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9938176798481565</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9834522150920397</v>
+        <v>0.9832608578518834</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9980312893335757</v>
+        <v>0.9980538385400144</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>421</v>
@@ -2819,19 +2819,19 @@
         <v>881568</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>876367</v>
+        <v>877707</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>883480</v>
+        <v>883487</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9968252450907478</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9909435994251482</v>
+        <v>0.9924589539124837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9989873387666588</v>
+        <v>0.9989947694096142</v>
       </c>
     </row>
     <row r="6">
@@ -2923,19 +2923,19 @@
         <v>2913</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7955</v>
+        <v>7895</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004238943702225282</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001348349696797822</v>
+        <v>0.001348637317712409</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01157755954945896</v>
+        <v>0.01149092759396275</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5696</v>
+        <v>5523</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001618746661340393</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009334235721173619</v>
+        <v>0.009050549714217754</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -2965,19 +2965,19 @@
         <v>3900</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10043</v>
+        <v>9051</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003006432257102384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0007587750814034955</v>
+        <v>0.0007562255559294228</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007741149828877915</v>
+        <v>0.006976205726844462</v>
       </c>
     </row>
     <row r="8">
@@ -2994,19 +2994,19 @@
         <v>684174</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>679132</v>
+        <v>679192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>686161</v>
+        <v>686160</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9957610562977747</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.988422440450541</v>
+        <v>0.9885090724060372</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9986516503032022</v>
+        <v>0.9986513626822876</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>570</v>
@@ -3015,7 +3015,7 @@
         <v>609267</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>604559</v>
+        <v>604732</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>610255</v>
@@ -3024,7 +3024,7 @@
         <v>0.9983812533386596</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9906657642788262</v>
+        <v>0.9909494502857815</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3036,19 +3036,19 @@
         <v>1293442</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1287299</v>
+        <v>1288291</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1296358</v>
+        <v>1296361</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9969935677428976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9922588501711218</v>
+        <v>0.9930237942731555</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9992412249185966</v>
+        <v>0.9992437744440705</v>
       </c>
     </row>
     <row r="9">
@@ -3140,19 +3140,19 @@
         <v>5808</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2011</v>
+        <v>1947</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13650</v>
+        <v>13612</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008518340793211359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002949063946416654</v>
+        <v>0.002855603578346263</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02001838529541819</v>
+        <v>0.01996287184296359</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3161,19 +3161,19 @@
         <v>6385</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2076</v>
+        <v>2006</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15409</v>
+        <v>15378</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008997940610554431</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002925450628033408</v>
+        <v>0.0028276586708517</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.021716336990274</v>
+        <v>0.02167225695464515</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -3182,19 +3182,19 @@
         <v>12193</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5852</v>
+        <v>6417</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23121</v>
+        <v>22554</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008762916512087656</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004205866680062384</v>
+        <v>0.004611517828056381</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01661628326108632</v>
+        <v>0.01620930612033009</v>
       </c>
     </row>
     <row r="11">
@@ -3211,19 +3211,19 @@
         <v>676055</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>668213</v>
+        <v>668251</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>679852</v>
+        <v>679916</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9914816592067887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9799816147045818</v>
+        <v>0.9800371281570364</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9970509360535833</v>
+        <v>0.9971443964216538</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>661</v>
@@ -3232,19 +3232,19 @@
         <v>703189</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>694165</v>
+        <v>694196</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>707498</v>
+        <v>707568</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9910020593894455</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.978283663009726</v>
+        <v>0.9783277430453549</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9970745493719666</v>
+        <v>0.9971723413291483</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1307</v>
@@ -3253,19 +3253,19 @@
         <v>1379244</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1368316</v>
+        <v>1368883</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1385585</v>
+        <v>1385020</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9912370834879124</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9833837167389138</v>
+        <v>0.9837906938796693</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9957941333199377</v>
+        <v>0.9953884821719435</v>
       </c>
     </row>
     <row r="12">
@@ -3357,19 +3357,19 @@
         <v>10774</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5229</v>
+        <v>4270</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21726</v>
+        <v>21774</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01752901652281954</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008508057224255532</v>
+        <v>0.006948101197561306</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03534882107253746</v>
+        <v>0.03542758966021763</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6950</v>
+        <v>7982</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003743580605923947</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01131434987921205</v>
+        <v>0.01299437975536324</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -3399,19 +3399,19 @@
         <v>13073</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6555</v>
+        <v>6606</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24734</v>
+        <v>23606</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01063827755736219</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005334161013571322</v>
+        <v>0.00537570969545886</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02012757303571994</v>
+        <v>0.01920914865170702</v>
       </c>
     </row>
     <row r="14">
@@ -3428,19 +3428,19 @@
         <v>603843</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>592891</v>
+        <v>592843</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>609388</v>
+        <v>610347</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9824709834771804</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9646511789274627</v>
+        <v>0.9645724103397825</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9914919427757446</v>
+        <v>0.9930518988024387</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>536</v>
@@ -3449,7 +3449,7 @@
         <v>611964</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>607314</v>
+        <v>606282</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>614264</v>
@@ -3458,7 +3458,7 @@
         <v>0.9962564193940761</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.988685650120788</v>
+        <v>0.9870056202446368</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3470,19 +3470,19 @@
         <v>1215807</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1204146</v>
+        <v>1205274</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1222325</v>
+        <v>1222274</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9893617224426378</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9798724269642807</v>
+        <v>0.980790851348293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9946658389864288</v>
+        <v>0.9946242903045414</v>
       </c>
     </row>
     <row r="15">
@@ -3574,19 +3574,19 @@
         <v>4101</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1127</v>
+        <v>1057</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9608</v>
+        <v>10111</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00954887971409445</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002625113771803229</v>
+        <v>0.002460991233170405</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0223750232093472</v>
+        <v>0.02354553904854913</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3608,19 +3608,19 @@
         <v>4101</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10480</v>
+        <v>10318</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004674454043832676</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001193010051048004</v>
+        <v>0.001188223664252955</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0119467528707075</v>
+        <v>0.01176233684416337</v>
       </c>
     </row>
     <row r="17">
@@ -3637,19 +3637,19 @@
         <v>425328</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>419821</v>
+        <v>419318</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>428302</v>
+        <v>428372</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9904511202859055</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9776249767906531</v>
+        <v>0.9764544609514508</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9973748862281968</v>
+        <v>0.9975390087668297</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>406</v>
@@ -3671,19 +3671,19 @@
         <v>873128</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>866749</v>
+        <v>866911</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>876182</v>
+        <v>876187</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9953255459561673</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9880532471292919</v>
+        <v>0.9882376631558365</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.998806989948952</v>
+        <v>0.998811776335747</v>
       </c>
     </row>
     <row r="18">
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7966</v>
+        <v>7722</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006481928245565129</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02571335400527322</v>
+        <v>0.0249275974243346</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6995</v>
+        <v>7764</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005669987910956083</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01976058853857338</v>
+        <v>0.02193111163751645</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -3817,19 +3817,19 @@
         <v>4015</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10076</v>
+        <v>9286</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006048919288179815</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001508800493033134</v>
+        <v>0.001506552470541002</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01517985324808719</v>
+        <v>0.01398975931519732</v>
       </c>
     </row>
     <row r="20">
@@ -3846,7 +3846,7 @@
         <v>307778</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>301820</v>
+        <v>302064</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>309786</v>
@@ -3855,7 +3855,7 @@
         <v>0.9935180717544349</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9742866459947267</v>
+        <v>0.9750724025756641</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3867,7 +3867,7 @@
         <v>351989</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>347001</v>
+        <v>346232</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>353996</v>
@@ -3876,7 +3876,7 @@
         <v>0.9943300120890439</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9802394114614268</v>
+        <v>0.9780688883624847</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -3888,19 +3888,19 @@
         <v>659767</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>653706</v>
+        <v>654496</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>662780</v>
+        <v>662782</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9939510807118201</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9848201467519128</v>
+        <v>0.9860102406848028</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9984911995069669</v>
+        <v>0.998493447529459</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>4380</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13774</v>
+        <v>13018</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01752870904343888</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004241575998609684</v>
+        <v>0.004253792805045069</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05512910652719394</v>
+        <v>0.05210422883606597</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -4013,19 +4013,19 @@
         <v>9775</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4374</v>
+        <v>4340</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18459</v>
+        <v>17114</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02512976019488859</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01124359401195027</v>
+        <v>0.01115843903236662</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04745517413688868</v>
+        <v>0.04399847958270535</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -4034,19 +4034,19 @@
         <v>14155</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7430</v>
+        <v>7614</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24696</v>
+        <v>25065</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02215693556240873</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01163006980630067</v>
+        <v>0.01191817457238824</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03865774666337987</v>
+        <v>0.03923625442799031</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>245471</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>236077</v>
+        <v>236833</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>248791</v>
+        <v>248788</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9824712909565612</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9448708934728054</v>
+        <v>0.9478957711639338</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9957584240013904</v>
+        <v>0.9957462071949549</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>341</v>
@@ -4084,19 +4084,19 @@
         <v>379204</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>370520</v>
+        <v>371865</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>384605</v>
+        <v>384639</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9748702398051114</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9525448258631113</v>
+        <v>0.9560015204172949</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9887564059880497</v>
+        <v>0.9888415609676334</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>560</v>
@@ -4105,19 +4105,19 @@
         <v>624675</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>614134</v>
+        <v>613765</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>631400</v>
+        <v>631216</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9778430644375913</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9613422533366196</v>
+        <v>0.9607637455720096</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9883699301936992</v>
+        <v>0.9880818254276117</v>
       </c>
     </row>
     <row r="24">
@@ -4209,19 +4209,19 @@
         <v>32790</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22809</v>
+        <v>22181</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50039</v>
+        <v>47878</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009568842304984391</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006655974714619301</v>
+        <v>0.006472943814290164</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01460223732426785</v>
+        <v>0.0139718218531556</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -4230,19 +4230,19 @@
         <v>21454</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12918</v>
+        <v>13202</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32540</v>
+        <v>32673</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006034770640894297</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00363354787169255</v>
+        <v>0.003713512859181389</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009152968988008613</v>
+        <v>0.009190440895766471</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -4251,19 +4251,19 @@
         <v>54245</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40211</v>
+        <v>40094</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>72237</v>
+        <v>72880</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.007769330207994423</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005759405541967779</v>
+        <v>0.005742601492680995</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01034640415813845</v>
+        <v>0.010438410426137</v>
       </c>
     </row>
     <row r="26">
@@ -4280,19 +4280,19 @@
         <v>3393989</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3376740</v>
+        <v>3378901</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3403970</v>
+        <v>3404598</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9904311576950157</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9853977626757321</v>
+        <v>0.9860281781468444</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9933440252853808</v>
+        <v>0.99352705618571</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3277</v>
@@ -4301,19 +4301,19 @@
         <v>3533644</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3522558</v>
+        <v>3522425</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3542180</v>
+        <v>3541896</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9939652293591057</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9908470310119911</v>
+        <v>0.9908095591042335</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9963664521283073</v>
+        <v>0.9962864871408186</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6458</v>
@@ -4322,19 +4322,19 @@
         <v>6927632</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6909640</v>
+        <v>6908997</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6941666</v>
+        <v>6941783</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9922306697920056</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9896535958418614</v>
+        <v>0.9895615895738629</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9942405944580323</v>
+        <v>0.994257398507319</v>
       </c>
     </row>
     <row r="27">
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8216</v>
+        <v>7762</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005572040712348021</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01958662779063772</v>
+        <v>0.01850467439679986</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6874</v>
+        <v>5785</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004892900783141933</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01736905117127717</v>
+        <v>0.01461858405123123</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4711,19 +4711,19 @@
         <v>4274</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10862</v>
+        <v>10499</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005242346048823596</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001225844606215199</v>
+        <v>0.001222784725275046</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01332416762494587</v>
+        <v>0.0128785203245967</v>
       </c>
     </row>
     <row r="5">
@@ -4740,7 +4740,7 @@
         <v>417126</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411247</v>
+        <v>411701</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4749,7 +4749,7 @@
         <v>0.9944279592876519</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9804133722093625</v>
+        <v>0.9814953256032004</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4761,7 +4761,7 @@
         <v>393819</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>388881</v>
+        <v>389970</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -4770,7 +4770,7 @@
         <v>0.995107099216858</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9826309488287228</v>
+        <v>0.9853814159487688</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4782,19 +4782,19 @@
         <v>810944</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>804356</v>
+        <v>804719</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>814219</v>
+        <v>814221</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9947576539511764</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9866758323750539</v>
+        <v>0.9871214796754031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9987741553937848</v>
+        <v>0.998777215274725</v>
       </c>
     </row>
     <row r="6">
@@ -4886,19 +4886,19 @@
         <v>5876</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1995</v>
+        <v>2065</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13388</v>
+        <v>14993</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009951406772568517</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003378001313273947</v>
+        <v>0.003497568222198694</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02267251092269884</v>
+        <v>0.02539097643694221</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4432</v>
+        <v>4147</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001573700923566152</v>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.007865276485956111</v>
+        <v>0.007357996934337456</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -4928,19 +4928,19 @@
         <v>6763</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2045</v>
+        <v>2825</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13477</v>
+        <v>13932</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005860384418752892</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001772178431021837</v>
+        <v>0.002447857494272605</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01167825530042512</v>
+        <v>0.01207266707229478</v>
       </c>
     </row>
     <row r="8">
@@ -4957,19 +4957,19 @@
         <v>584620</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>577108</v>
+        <v>575503</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>588501</v>
+        <v>588431</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9900485932274314</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9773274890773012</v>
+        <v>0.9746090235630579</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9966219986867261</v>
+        <v>0.9965024317778013</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>578</v>
@@ -4978,7 +4978,7 @@
         <v>562657</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>559112</v>
+        <v>559397</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>563544</v>
@@ -4987,7 +4987,7 @@
         <v>0.9984262990764339</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9921347235140439</v>
+        <v>0.992642003065662</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4999,19 +4999,19 @@
         <v>1147277</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1140563</v>
+        <v>1140108</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1151995</v>
+        <v>1151215</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9941396155812471</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9883217446995741</v>
+        <v>0.9879273329277052</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9982278215689782</v>
+        <v>0.9975521425057274</v>
       </c>
     </row>
     <row r="9">
@@ -5103,19 +5103,19 @@
         <v>4821</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1884</v>
+        <v>1876</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10601</v>
+        <v>10656</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007205454867756075</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002816053622417836</v>
+        <v>0.002803287406995579</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0158438109698072</v>
+        <v>0.01592596746370466</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -5124,19 +5124,19 @@
         <v>6489</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2916</v>
+        <v>2100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13757</v>
+        <v>14013</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009810539677006458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004408839335257648</v>
+        <v>0.003175713380111376</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02080078162168047</v>
+        <v>0.02118781416048229</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -5145,19 +5145,19 @@
         <v>11310</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5799</v>
+        <v>5967</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19546</v>
+        <v>20643</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008500448782402583</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00435837784256553</v>
+        <v>0.004484587127209402</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01469116285565572</v>
+        <v>0.01551569440102376</v>
       </c>
     </row>
     <row r="11">
@@ -5174,19 +5174,19 @@
         <v>664276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>658496</v>
+        <v>658441</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>667213</v>
+        <v>667221</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.992794545132244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9841561890301929</v>
+        <v>0.9840740325362954</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9971839463775821</v>
+        <v>0.9971967125930045</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>659</v>
@@ -5195,19 +5195,19 @@
         <v>654897</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>647629</v>
+        <v>647373</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>658470</v>
+        <v>659286</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9901894603229935</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9791992183783196</v>
+        <v>0.9788121858395177</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9955911606647423</v>
+        <v>0.9968242866198886</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1292</v>
@@ -5216,19 +5216,19 @@
         <v>1319173</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1310937</v>
+        <v>1309840</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1324684</v>
+        <v>1324516</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9914995512175974</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9853088371443443</v>
+        <v>0.9844843055989764</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9956416221574345</v>
+        <v>0.9955154128727907</v>
       </c>
     </row>
     <row r="12">
@@ -5320,19 +5320,19 @@
         <v>9009</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4812</v>
+        <v>4301</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16051</v>
+        <v>16148</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01394547990433852</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007449003502486656</v>
+        <v>0.006656690197046407</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02484459728647942</v>
+        <v>0.02499466089908004</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -5341,19 +5341,19 @@
         <v>5904</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2077</v>
+        <v>2135</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12865</v>
+        <v>13517</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009096728515092658</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003199216924053016</v>
+        <v>0.003289503712581508</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0198203332670698</v>
+        <v>0.0208243921658023</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -5362,19 +5362,19 @@
         <v>14914</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8215</v>
+        <v>8610</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25794</v>
+        <v>24954</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01151543482498785</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006342855310591025</v>
+        <v>0.006648076977733954</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0199165776368397</v>
+        <v>0.01926747215654132</v>
       </c>
     </row>
     <row r="14">
@@ -5391,19 +5391,19 @@
         <v>637039</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>629997</v>
+        <v>629900</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>641236</v>
+        <v>641747</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9860545200956615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9751554027135205</v>
+        <v>0.9750053391009198</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9925509964975131</v>
+        <v>0.993343309802951</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>597</v>
@@ -5412,19 +5412,19 @@
         <v>643173</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>636212</v>
+        <v>635560</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>647000</v>
+        <v>646942</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9909032714849073</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9801796667329301</v>
+        <v>0.9791756078341977</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.996800783075947</v>
+        <v>0.9967104962874185</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1170</v>
@@ -5433,19 +5433,19 @@
         <v>1280211</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1269331</v>
+        <v>1270171</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1286910</v>
+        <v>1286515</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9884845651750122</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9800834223631602</v>
+        <v>0.9807325278434579</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9936571446894089</v>
+        <v>0.993351923022266</v>
       </c>
     </row>
     <row r="15">
@@ -5537,19 +5537,19 @@
         <v>3377</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9257</v>
+        <v>9402</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007065336772252917</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002189771916809553</v>
+        <v>0.002171654286475309</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01937037077264326</v>
+        <v>0.01967369052431607</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5558,19 +5558,19 @@
         <v>4147</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11432</v>
+        <v>11557</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008346286009023311</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00233481399504552</v>
+        <v>0.002328427313366842</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02300916341301113</v>
+        <v>0.02326112833017563</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -5579,19 +5579,19 @@
         <v>7523</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3368</v>
+        <v>3234</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15827</v>
+        <v>16102</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007718250083032757</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003454964386025845</v>
+        <v>0.003317705188455606</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01623622585948115</v>
+        <v>0.0165188898007823</v>
       </c>
     </row>
     <row r="17">
@@ -5608,19 +5608,19 @@
         <v>474541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>468661</v>
+        <v>468516</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>476871</v>
+        <v>476880</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.992934663227747</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9806296292273571</v>
+        <v>0.9803263094756833</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9978102280831904</v>
+        <v>0.9978283457135247</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>430</v>
@@ -5629,19 +5629,19 @@
         <v>492702</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>485417</v>
+        <v>485292</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>495689</v>
+        <v>495692</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9916537139909767</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9769908365869896</v>
+        <v>0.976738871669825</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9976651860049545</v>
+        <v>0.9976715726866331</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>851</v>
@@ -5650,19 +5650,19 @@
         <v>967244</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>958940</v>
+        <v>958665</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>971399</v>
+        <v>971533</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9922817499169673</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9837637741405189</v>
+        <v>0.983481110199217</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9965450356139741</v>
+        <v>0.9966822948115444</v>
       </c>
     </row>
     <row r="18">
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7004</v>
+        <v>7222</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005998262167551386</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02094867860015949</v>
+        <v>0.02160001035259926</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -5775,19 +5775,19 @@
         <v>4945</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11154</v>
+        <v>10918</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01309155313095178</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005092655324256843</v>
+        <v>0.005081305396676361</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02952539626445671</v>
+        <v>0.02890100333241991</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -5796,19 +5796,19 @@
         <v>6951</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2916</v>
+        <v>2938</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13776</v>
+        <v>13889</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009761225089719982</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00409520776025809</v>
+        <v>0.004125689916560348</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0193453058886003</v>
+        <v>0.01950454582003807</v>
       </c>
     </row>
     <row r="20">
@@ -5825,7 +5825,7 @@
         <v>332325</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>327326</v>
+        <v>327108</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>334330</v>
@@ -5834,7 +5834,7 @@
         <v>0.9940017378324486</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9790513213998406</v>
+        <v>0.9783999896474005</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5846,19 +5846,19 @@
         <v>372817</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>366608</v>
+        <v>366844</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>375838</v>
+        <v>375842</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9869084468690482</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9704746037355433</v>
+        <v>0.97109899666758</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9949073446757432</v>
+        <v>0.9949186946033237</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>672</v>
@@ -5867,19 +5867,19 @@
         <v>705141</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>698316</v>
+        <v>698203</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>709176</v>
+        <v>709154</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.99023877491028</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9806546941113995</v>
+        <v>0.9804954541799619</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9959047922397419</v>
+        <v>0.9958743100834396</v>
       </c>
     </row>
     <row r="21">
@@ -5971,19 +5971,19 @@
         <v>4105</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8840</v>
+        <v>8992</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01597323830500133</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006163419528001538</v>
+        <v>0.006184291372427481</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03439830399535547</v>
+        <v>0.03499037532082862</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -5992,19 +5992,19 @@
         <v>9447</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3723</v>
+        <v>4596</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18116</v>
+        <v>19699</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02360799369746996</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009304022737204621</v>
+        <v>0.01148461700933214</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04527182229268928</v>
+        <v>0.04922588081029995</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -6013,19 +6013,19 @@
         <v>13552</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6966</v>
+        <v>7062</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23544</v>
+        <v>22898</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02062227336610084</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01059986336641887</v>
+        <v>0.01074601027624522</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03582664364362797</v>
+        <v>0.03484415064328941</v>
       </c>
     </row>
     <row r="23">
@@ -6042,19 +6042,19 @@
         <v>252893</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>248158</v>
+        <v>248006</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>255414</v>
+        <v>255409</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9840267616949987</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9656016960046445</v>
+        <v>0.9650096246791715</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9938365804719985</v>
+        <v>0.9938157086275725</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>294</v>
@@ -6063,19 +6063,19 @@
         <v>390722</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>382053</v>
+        <v>380470</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>396446</v>
+        <v>395573</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.97639200630253</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9547281777073108</v>
+        <v>0.9507741191896987</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9906959772627956</v>
+        <v>0.9885153829906679</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>591</v>
@@ -6084,19 +6084,19 @@
         <v>643615</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>633623</v>
+        <v>634269</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>650201</v>
+        <v>650105</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9793777266338992</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9641733563563719</v>
+        <v>0.9651558493567107</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9894001366335811</v>
+        <v>0.9892539897237556</v>
       </c>
     </row>
     <row r="24">
@@ -6188,19 +6188,19 @@
         <v>31531</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21555</v>
+        <v>21077</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45006</v>
+        <v>44309</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009289340281430946</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006350137198595015</v>
+        <v>0.006209452053614274</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01325903198188836</v>
+        <v>0.01305362416626726</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -6209,19 +6209,19 @@
         <v>33756</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23434</v>
+        <v>22597</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48821</v>
+        <v>49363</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.009523316246335518</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006611426718393933</v>
+        <v>0.006375166033077717</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01377368521911206</v>
+        <v>0.0139265398664267</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>60</v>
@@ -6230,19 +6230,19 @@
         <v>65287</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50089</v>
+        <v>50049</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83521</v>
+        <v>84235</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009408860457486089</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007218547751944037</v>
+        <v>0.007212814790652658</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0120366327280391</v>
+        <v>0.01213958881893639</v>
       </c>
     </row>
     <row r="26">
@@ -6259,19 +6259,19 @@
         <v>3362819</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3349344</v>
+        <v>3350041</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3372795</v>
+        <v>3373273</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9907106597185691</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9867409680181118</v>
+        <v>0.9869463758337327</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9936498628014051</v>
+        <v>0.9937905479463854</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3309</v>
@@ -6280,19 +6280,19 @@
         <v>3510786</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3495721</v>
+        <v>3495179</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3521108</v>
+        <v>3521945</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9904766837536645</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.986226314780888</v>
+        <v>0.9860734601335731</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.993388573281606</v>
+        <v>0.9936248339669222</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6509</v>
@@ -6301,19 +6301,19 @@
         <v>6873605</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6855371</v>
+        <v>6854657</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6888803</v>
+        <v>6888843</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9905911395425139</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9879633672719609</v>
+        <v>0.9878604111810637</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9927814522480556</v>
+        <v>0.9927871852093474</v>
       </c>
     </row>
     <row r="27">
